--- a/biology/Médecine/Christian_Gerhard_Leopold/Christian_Gerhard_Leopold.xlsx
+++ b/biology/Médecine/Christian_Gerhard_Leopold/Christian_Gerhard_Leopold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Gerhard Leopold (24 février 1846 à Meerane, Royaume de Saxe- 12 septembre 1911) est un gynécologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1870, il obtient son doctorat en médecine de l'université de Leipzig, sous la direction de Carl Siegmund Franz Credé (en) (1819-1892), qui deviendra plus tard son beau-père. De 1877 jusqu'en 1883, il enseigne le métier de sage-femme à la Frauenklinik à Leipzig, et a ensuite succédé à Franz von Winckel (de) (1837-1911) comme directeur du Königlichen Frauenklinik und Hebammenlehranstalt de Dresde.
 Leopold est connu pour les manœuvres portant son nom (manœuvres de Leopold), qui sont quatre manœuvres classiques utilisées pour déterminer la position du fœtus dans l'utérus. À compter de 1894, il a été coéditeur de la Archiv für Gynäkologie avec Adolf Gusserow (en) (1836-1906). De plus, avec le Carl Credé et Paul Zweifel (en) (1848-1927), il a publié des manuels sur les sages-femmes.
